--- a/src/data/data_items.xlsx
+++ b/src/data/data_items.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mlhsieh/Documents/NCKU/SnailOasis/Dev_220224/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E96904-14A9-884B-83BC-E4B31A6B4DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367794A6-3C52-9E41-B42E-7E51A2F24AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="260" yWindow="500" windowWidth="28260" windowHeight="15960" xr2:uid="{DD2BD5EA-491D-0F4A-AD4B-20777D54C1BE}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,6 +110,10 @@
   </si>
   <si>
     <t>board</t>
+  </si>
+  <si>
+    <t>block</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -489,15 +493,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{804E6E0E-1E50-954C-8E54-9026B99C8527}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -508,25 +512,28 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="16">
+    <row r="2" spans="1:10" ht="16">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -536,11 +543,14 @@
       <c r="C2">
         <v>-300</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="16">
+    <row r="3" spans="1:10" ht="16">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -550,17 +560,20 @@
       <c r="C3">
         <v>350</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="16">
+    <row r="4" spans="1:10" ht="16">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -570,11 +583,14 @@
       <c r="C4">
         <v>-200</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="16">
+    <row r="5" spans="1:10" ht="16">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -583,6 +599,9 @@
       </c>
       <c r="C5">
         <v>100</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
